--- a/base-wind/trunk/deploy/examples/wind-events-log.xlsx
+++ b/base-wind/trunk/deploy/examples/wind-events-log.xlsx
@@ -717,304 +717,268 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="199"/>
                 <c:pt idx="0">
-                  <c:v>0.90940330736339103</c:v>
+                  <c:v>0.95859901979565598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75921672070398905</c:v>
+                  <c:v>0.81572732515633095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47683294862508802</c:v>
+                  <c:v>0.21647441294044301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79419617308303703</c:v>
+                  <c:v>1.76396341994405E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50611237389966801</c:v>
+                  <c:v>0.88260581484064504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0271178111434E-2</c:v>
+                  <c:v>7.27600851096213E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87460175529122397</c:v>
+                  <c:v>0.41125112073496001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33632911229506102</c:v>
+                  <c:v>0.404757157899439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62671862170100201</c:v>
+                  <c:v>0.66659936355426896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88203288661316004</c:v>
+                  <c:v>0.22092528315261001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42448708834126597</c:v>
+                  <c:v>0.29509349027648601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.644550987984985</c:v>
+                  <c:v>0.93961841892451003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50552858458831895</c:v>
+                  <c:v>0.28483878960832998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.802236074116081</c:v>
+                  <c:v>0.53830044157803103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4619372822344303E-3</c:v>
+                  <c:v>0.430756611283869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.234582991804928</c:v>
+                  <c:v>0.26151048904284802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47210722183808701</c:v>
+                  <c:v>0.57744581392034899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.305752873420715</c:v>
+                  <c:v>0.60074430052190997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43560982542112497</c:v>
+                  <c:v>0.66775122471153703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87324771890416697</c:v>
+                  <c:v>0.29102211119607102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50910791335627403</c:v>
+                  <c:v>0.59203391382470705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62691895896568905</c:v>
+                  <c:v>7.7944422140717506E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.81228738045319904</c:v>
+                  <c:v>0.226335298269987</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15336595242843001</c:v>
+                  <c:v>0.19968442618846899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96606229338794902</c:v>
+                  <c:v>0.86768646398559202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25991592323407497</c:v>
+                  <c:v>9.0012066997587695E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.203162214718759</c:v>
+                  <c:v>6.0100453440100003E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.97819446213543E-2</c:v>
+                  <c:v>0.24452833877876401</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96640025870874502</c:v>
+                  <c:v>7.1607055608183104E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.870535095222294</c:v>
+                  <c:v>0.87415557075291905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.49949722457677098</c:v>
+                  <c:v>0.56255121249705597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.41383910551667202</c:v>
+                  <c:v>0.428239481523633</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.27768091065809097</c:v>
+                  <c:v>0.42071731342002699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.09610762633383E-2</c:v>
+                  <c:v>0.14037069538608199</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.36470960639417199</c:v>
+                  <c:v>0.37121288711205103</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28957193298265299</c:v>
+                  <c:v>0.20443775877356499</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4615361113101201E-2</c:v>
+                  <c:v>0.19871826330199799</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.71606876282021403</c:v>
+                  <c:v>0.561704919673502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.74726416077464797</c:v>
+                  <c:v>0.87896224949508905</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96646208502352204</c:v>
+                  <c:v>0.83396239159628704</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.67841620277613401</c:v>
+                  <c:v>0.41852419450879103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.47122422186657797</c:v>
+                  <c:v>0.336383637040854</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.42987399548292199</c:v>
+                  <c:v>0.33577858516946402</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.45879316050559299</c:v>
+                  <c:v>9.2702535446733195E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.349778630770743</c:v>
+                  <c:v>0.60398120386526</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.46080763824284099</c:v>
+                  <c:v>0.83353166561573699</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26449623377993697</c:v>
+                  <c:v>0.62709920387715101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.224519248586148</c:v>
+                  <c:v>0.26086654188111402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12887652451172499</c:v>
+                  <c:v>0.63025916740298304</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.67644724668934897</c:v>
+                  <c:v>0.84634038945659995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9079201854765401E-2</c:v>
+                  <c:v>7.3456011246889802E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.59843204729259003</c:v>
+                  <c:v>0.38118377514183499</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.92852703109384E-2</c:v>
+                  <c:v>0.28394296625629101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.44841595645993898</c:v>
+                  <c:v>0.87516135210171297</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.62666613468900301</c:v>
+                  <c:v>0.72769091092050098</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.43453633179888101</c:v>
+                  <c:v>0.74084622180089399</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.67406437266618002</c:v>
+                  <c:v>0.33837613789364701</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.63638119632378198</c:v>
+                  <c:v>9.4090568833053098E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.287570773623884</c:v>
+                  <c:v>0.100063745863736</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.75169676635414395</c:v>
+                  <c:v>0.75605030031874798</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.59453607862815305</c:v>
+                  <c:v>6.9601329509168905E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.44030744675546901</c:v>
+                  <c:v>8.3080899436026798E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.73583274940028798</c:v>
+                  <c:v>0.182684790808707</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.98023685766384006</c:v>
+                  <c:v>0.53525503631681204</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.95545248081907597</c:v>
+                  <c:v>8.1946053542196803E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.84255826473236095</c:v>
+                  <c:v>0.30914994608610902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14982859790325201</c:v>
+                  <c:v>0.49405973125249097</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.68430216424167201</c:v>
+                  <c:v>0.53677230142056898</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.95269371755421195</c:v>
+                  <c:v>0.74199187802150801</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.73958934936672405</c:v>
+                  <c:v>0.37410277640446998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.465760495979339</c:v>
+                  <c:v>0.51669403444975603</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72442702623084199</c:v>
+                  <c:v>0.49071760242804902</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.83267442183569096</c:v>
+                  <c:v>0.46769442968070501</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.87879400094971105</c:v>
+                  <c:v>0.426568580325693</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.32991296099498901</c:v>
+                  <c:v>0.115006126929075</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.21082337154075501</c:v>
+                  <c:v>0.98375038988888297</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.65077799838036299</c:v>
+                  <c:v>0.89929331373423305</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.14576500141993201</c:v>
+                  <c:v>0.51330283470451799</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.57249190751463197</c:v>
+                  <c:v>0.80220590345561504</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.912205634638667</c:v>
+                  <c:v>0.50222296360880103</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.73835546337068103</c:v>
+                  <c:v>0.33130517648532998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.33449261030182198</c:v>
+                  <c:v>0.21768304705619801</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.131473744288087</c:v>
+                  <c:v>0.24979136046022199</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.70347924623638403</c:v>
+                  <c:v>0.28448819881305099</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.48720758687704802</c:v>
+                  <c:v>0.99011585535481605</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.140284033492208</c:v>
+                  <c:v>0.35709339752793301</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.85223997151479103</c:v>
+                  <c:v>0.86132577899843499</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.87857079226523604</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.99491061223670796</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.19590768311172699</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.184874220751226</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.67120899213478002</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.83859813259914495</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.70853844471275795</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.63133976422250304</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.17963390331715301</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.52247202256694403</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.89049910567700896</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.91322363400831796</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.76353455521166302</c:v>
+                  <c:v>0.73296366166323401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +990,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="199"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1035,97 +999,97 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.96</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2</c:v>
@@ -1134,7 +1098,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3</c:v>
@@ -1143,186 +1107,150 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.92</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1490,25 +1418,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>11.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.227272727272728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>23.863636363636363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.000000000000002</c:v>
+                  <c:v>17.045454545454543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,13 +1556,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>21.590909090909093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>48.86363636363636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>29.545454545454543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,37 +1728,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2316,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,31 +2304,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>0.90940330736339103</v>
+        <v>0.95859901979565598</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>3.1799178302376299</v>
       </c>
       <c r="G2">
-        <v>564</v>
+        <v>132</v>
       </c>
       <c r="H2">
-        <v>564</v>
+        <v>132</v>
       </c>
       <c r="I2">
-        <v>6645</v>
+        <v>2488</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -2434,28 +2362,28 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.75921672070398905</v>
+        <v>0.81572732515633095</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2.6350899663094798</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -2473,47 +2401,47 @@
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P9" si="0">100*(O3/O$11)</f>
-        <v>12</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R5" si="1">SUM(P3,P7)</f>
-        <v>22</v>
+        <v>21.590909090909093</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>0.47683294862508802</v>
+        <v>0.21647441294044301</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>3.3816337036257398</v>
       </c>
       <c r="G4">
-        <v>313</v>
+        <v>600</v>
       </c>
       <c r="H4">
-        <v>313</v>
+        <v>600</v>
       </c>
       <c r="I4">
-        <v>541</v>
+        <v>1196</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2531,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -2542,39 +2470,39 @@
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.86363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0.79419617308303703</v>
+        <v>1.76396341994405E-2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0.73082338836282001</v>
       </c>
       <c r="G5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -2589,47 +2517,47 @@
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29.545454545454543</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>0.50611237389966801</v>
+        <v>0.88260581484064504</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2.9112081297470001</v>
       </c>
       <c r="G6">
-        <v>181</v>
+        <v>458</v>
       </c>
       <c r="H6">
-        <v>181</v>
+        <v>457</v>
       </c>
       <c r="I6">
-        <v>1308</v>
+        <v>753</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -2656,34 +2584,34 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>3.0271178111434E-2</v>
+        <v>7.27600851096213E-2</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>3.2503892188401</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -2698,43 +2626,43 @@
         <v>5</v>
       </c>
       <c r="O7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.227272727272728</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>0.87460175529122397</v>
+        <v>0.41125112073496001</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2.9195872598741399</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I8">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -2749,40 +2677,40 @@
         <v>6</v>
       </c>
       <c r="O8" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23.863636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>0.33632911229506102</v>
+        <v>0.404757157899439</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5.8638711646460298</v>
       </c>
       <c r="G9">
-        <v>234</v>
+        <v>525</v>
       </c>
       <c r="H9">
-        <v>234</v>
+        <v>512</v>
       </c>
       <c r="I9">
-        <v>794</v>
+        <v>855</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2800,43 +2728,43 @@
         <v>7</v>
       </c>
       <c r="O9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
+        <v>17.045454545454543</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>0.62671862170100201</v>
+        <v>0.66659936355426896</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
+        <v>4.0450412300582803</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>72</v>
+      </c>
+      <c r="J10">
         <v>3</v>
-      </c>
-      <c r="G10">
-        <v>227</v>
-      </c>
-      <c r="H10">
-        <v>227</v>
-      </c>
-      <c r="I10">
-        <v>761</v>
-      </c>
-      <c r="J10">
-        <v>2.96</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -2850,73 +2778,73 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.22092528315261001</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4.2248147974355303</v>
+      </c>
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>0.88203288661316004</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>37</v>
-      </c>
       <c r="H11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
       </c>
       <c r="O11">
         <f>SUM(O2:O9)</f>
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D12">
-        <v>0.42448708834126597</v>
+        <v>0.29509349027648601</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>3.2759107887543202</v>
       </c>
       <c r="G12">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="H12">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="I12">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="J12">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -2927,31 +2855,31 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>0.644550987984985</v>
+        <v>0.93961841892451003</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2.6124688226763899</v>
       </c>
       <c r="G13">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H13">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>444</v>
+        <v>1504</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -2959,34 +2887,34 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>0.50552858458831895</v>
+        <v>0.28483878960832998</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4.0783009619355797</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -2994,31 +2922,31 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>0.802236074116081</v>
+        <v>0.53830044157803103</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4.2853059304290699</v>
       </c>
       <c r="G15">
-        <v>464</v>
+        <v>85</v>
       </c>
       <c r="H15">
-        <v>464</v>
+        <v>85</v>
       </c>
       <c r="I15">
-        <v>1077</v>
+        <v>292</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3032,31 +2960,31 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>0.430756611283869</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>5.4619372822344303E-3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
       <c r="F16">
-        <v>3</v>
+        <v>3.3905152964385801</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -3067,31 +2995,31 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>0.234582991804928</v>
+        <v>0.26151048904284802</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1.4413503253679301</v>
       </c>
       <c r="G17">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
@@ -3102,31 +3030,31 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>0.47210722183808701</v>
+        <v>0.57744581392034899</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>2.8927835131526001</v>
+      </c>
+      <c r="G18">
+        <v>119</v>
+      </c>
+      <c r="H18">
+        <v>119</v>
+      </c>
+      <c r="I18">
+        <v>129</v>
+      </c>
+      <c r="J18">
         <v>3</v>
-      </c>
-      <c r="G18">
-        <v>154</v>
-      </c>
-      <c r="H18">
-        <v>154</v>
-      </c>
-      <c r="I18">
-        <v>375</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -3137,31 +3065,31 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>0.305752873420715</v>
+        <v>0.60074430052190997</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19">
+        <v>1.50977061544826</v>
+      </c>
+      <c r="G19">
+        <v>471</v>
+      </c>
+      <c r="H19">
+        <v>468</v>
+      </c>
+      <c r="I19">
+        <v>863</v>
+      </c>
+      <c r="J19">
         <v>3</v>
-      </c>
-      <c r="G19">
-        <v>143</v>
-      </c>
-      <c r="H19">
-        <v>143</v>
-      </c>
-      <c r="I19">
-        <v>253</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
@@ -3172,31 +3100,31 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>0.43560982542112497</v>
+        <v>0.66775122471153703</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
+        <v>2.0111285486516999</v>
+      </c>
+      <c r="G20">
+        <v>195</v>
+      </c>
+      <c r="H20">
+        <v>191</v>
+      </c>
+      <c r="I20">
+        <v>1268</v>
+      </c>
+      <c r="J20">
         <v>3</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -3207,31 +3135,31 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C21">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>0.87324771890416697</v>
+        <v>0.29102211119607102</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0.97724020806857703</v>
       </c>
       <c r="G21">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I21">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
@@ -3242,31 +3170,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>0.50910791335627403</v>
+        <v>0.59203391382470705</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>3.4864449876552599</v>
       </c>
       <c r="G22">
-        <v>461</v>
+        <v>160</v>
       </c>
       <c r="H22">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
@@ -3274,34 +3202,34 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>0.62691895896568905</v>
+        <v>7.7944422140717506E-2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>0.57983283035205502</v>
       </c>
       <c r="G23">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="H23">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="I23">
-        <v>711</v>
+        <v>91</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
@@ -3309,34 +3237,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>0.81228738045319904</v>
+        <v>0.226335298269987</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>3.49290041789927</v>
       </c>
       <c r="G24">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>341</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
@@ -3344,34 +3272,34 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>0.15336595242843001</v>
+        <v>0.19968442618846899</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4.1409829610377997</v>
       </c>
       <c r="G25">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -3379,34 +3307,34 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>0.96606229338794902</v>
+        <v>0.86768646398559202</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
+        <v>2.7576848075693401</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
+      <c r="J26">
         <v>3</v>
-      </c>
-      <c r="G26">
-        <v>19</v>
-      </c>
-      <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="I26">
-        <v>91</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -3417,31 +3345,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>0.25991592323407497</v>
+        <v>9.0012066997587695E-2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>0.50596032940180402</v>
       </c>
       <c r="G27">
+        <v>124</v>
+      </c>
+      <c r="H27">
+        <v>58</v>
+      </c>
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -3452,31 +3380,31 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>0.203162214718759</v>
+        <v>6.0100453440100003E-2</v>
       </c>
       <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2.55069726166926</v>
+      </c>
+      <c r="G28">
+        <v>132</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>24</v>
-      </c>
-      <c r="I28">
-        <v>17</v>
-      </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
         <v>10</v>
@@ -3493,34 +3421,34 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>6.97819446213543E-2</v>
+        <v>0.24452833877876401</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2.4181129583275802</v>
       </c>
       <c r="G29">
-        <v>121</v>
+        <v>414</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
@@ -3537,34 +3465,34 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>0.96640025870874502</v>
+        <v>7.1607055608183104E-2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2.8312202381235698</v>
       </c>
       <c r="G30">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="I30">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
@@ -3576,36 +3504,36 @@
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>0.870535095222294</v>
+        <v>0.87415557075291905</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4.0792153116571503</v>
       </c>
       <c r="G31">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="H31">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="I31">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3620,39 +3548,39 @@
         <v>1.5</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>0.49949722457677098</v>
+        <v>0.56255121249705597</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32">
+        <v>2.7866815591356402</v>
+      </c>
+      <c r="G32">
+        <v>305</v>
+      </c>
+      <c r="H32">
+        <v>305</v>
+      </c>
+      <c r="I32">
+        <v>2030</v>
+      </c>
+      <c r="J32">
         <v>3</v>
-      </c>
-      <c r="G32">
-        <v>72</v>
-      </c>
-      <c r="H32">
-        <v>72</v>
-      </c>
-      <c r="I32">
-        <v>28</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
@@ -3664,39 +3592,39 @@
         <v>2</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>0.41383910551667202</v>
+        <v>0.428239481523633</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>3.0052411331770101</v>
       </c>
       <c r="G33">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="H33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
@@ -3708,36 +3636,36 @@
         <v>2.5</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0.27768091065809097</v>
+        <v>0.42071731342002699</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>3.6905183207786298</v>
       </c>
       <c r="G34">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3752,39 +3680,39 @@
         <v>3</v>
       </c>
       <c r="O34" s="2">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>3.09610762633383E-2</v>
+        <v>0.14037069538608199</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2.3740330642943199</v>
       </c>
       <c r="G35">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>10</v>
@@ -3796,36 +3724,36 @@
         <v>3.5</v>
       </c>
       <c r="O35" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D36">
-        <v>0.36470960639417199</v>
+        <v>0.37121288711205103</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2.0210953213716798</v>
       </c>
       <c r="G36">
-        <v>600</v>
+        <v>244</v>
       </c>
       <c r="H36">
-        <v>596</v>
+        <v>244</v>
       </c>
       <c r="I36">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3840,36 +3768,36 @@
         <v>4</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>0.28957193298265299</v>
+        <v>0.20443775877356499</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4.28438134223435</v>
       </c>
       <c r="G37">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I37">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3884,39 +3812,39 @@
         <v>4.5</v>
       </c>
       <c r="O37" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>1.4615361113101201E-2</v>
+        <v>0.19871826330199799</v>
       </c>
       <c r="E38">
         <v>6</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>3.5666251955803001</v>
       </c>
       <c r="G38">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
@@ -3928,36 +3856,36 @@
         <v>5</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>0.71606876282021403</v>
+        <v>0.561704919673502</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>3.3446242726631601</v>
       </c>
       <c r="G39">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>565</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>637</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -3974,31 +3902,31 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>0.74726416077464797</v>
+        <v>0.87896224949508905</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>3.1613461409123</v>
       </c>
       <c r="G40">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="H40">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I40">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -4010,39 +3938,39 @@
         <v>6</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C41">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>0.83396239159628704</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>1.8082000951325401</v>
+      </c>
+      <c r="G41">
+        <v>157</v>
+      </c>
+      <c r="H41">
+        <v>157</v>
+      </c>
+      <c r="I41">
+        <v>369</v>
+      </c>
+      <c r="J41">
         <v>3</v>
-      </c>
-      <c r="D41">
-        <v>0.96646208502352204</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>47</v>
-      </c>
-      <c r="H41">
-        <v>47</v>
-      </c>
-      <c r="I41">
-        <v>1462</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>12</v>
@@ -4053,109 +3981,109 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>0.67841620277613401</v>
+        <v>0.41852419450879103</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2.2138164413657102</v>
       </c>
       <c r="G42">
-        <v>477</v>
+        <v>175</v>
       </c>
       <c r="H42">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="I42">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
         <v>29</v>
       </c>
       <c r="O42">
         <f>AVERAGE(F2:F200)</f>
-        <v>3</v>
+        <v>2.9404662807347601</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>0.47122422186657797</v>
+        <v>0.336383637040854</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>3.03908871252121</v>
       </c>
       <c r="G43">
-        <v>257</v>
+        <v>489</v>
       </c>
       <c r="H43">
-        <v>250</v>
+        <v>489</v>
       </c>
       <c r="I43">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="J43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
         <v>30</v>
       </c>
       <c r="O43">
         <f>STDEV(F2:F200)</f>
-        <v>0</v>
+        <v>1.0269924670980861</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C44">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>0.42987399548292199</v>
+        <v>0.33577858516946402</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2.95595354987669</v>
       </c>
       <c r="G44">
-        <v>484</v>
+        <v>161</v>
       </c>
       <c r="H44">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4163,223 +4091,223 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>0.45879316050559299</v>
+        <v>9.2702535446733195E-2</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2.5676881541160301</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D46">
-        <v>0.349778630770743</v>
+        <v>0.60398120386526</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F46">
+        <v>3.96398246003994</v>
+      </c>
+      <c r="G46">
+        <v>95</v>
+      </c>
+      <c r="H46">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>738</v>
+      </c>
+      <c r="J46">
         <v>3</v>
-      </c>
-      <c r="G46">
-        <v>329</v>
-      </c>
-      <c r="H46">
-        <v>329</v>
-      </c>
-      <c r="I46">
-        <v>140</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D47">
-        <v>0.46080763824284099</v>
+        <v>0.83353166561573699</v>
       </c>
       <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>1.7948104472103801</v>
+      </c>
+      <c r="G47">
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <v>22</v>
+      </c>
+      <c r="I47">
+        <v>28</v>
+      </c>
+      <c r="J47">
         <v>3</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>122</v>
-      </c>
-      <c r="H47">
-        <v>109</v>
-      </c>
-      <c r="I47">
-        <v>107</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D48">
-        <v>0.26449623377993697</v>
+        <v>0.62709920387715101</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48">
+        <v>4.8427075989784596</v>
+      </c>
+      <c r="G48">
+        <v>310</v>
+      </c>
+      <c r="H48">
+        <v>310</v>
+      </c>
+      <c r="I48">
+        <v>510</v>
+      </c>
+      <c r="J48">
         <v>3</v>
-      </c>
-      <c r="G48">
-        <v>332</v>
-      </c>
-      <c r="H48">
-        <v>329</v>
-      </c>
-      <c r="I48">
-        <v>930</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D49">
-        <v>0.224519248586148</v>
+        <v>0.26086654188111402</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2.2535737495236301</v>
       </c>
       <c r="G49">
-        <v>600</v>
+        <v>18</v>
       </c>
       <c r="H49">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D50">
-        <v>0.12887652451172499</v>
+        <v>0.63025916740298304</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50">
+        <v>5.7408883636766301</v>
+      </c>
+      <c r="G50">
+        <v>146</v>
+      </c>
+      <c r="H50">
+        <v>146</v>
+      </c>
+      <c r="I50">
+        <v>423</v>
+      </c>
+      <c r="J50">
         <v>3</v>
-      </c>
-      <c r="G50">
-        <v>20</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C51">
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <v>0.84634038945659995</v>
+      </c>
+      <c r="E51">
         <v>3</v>
       </c>
-      <c r="D51">
-        <v>0.67644724668934897</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
       <c r="F51">
-        <v>3</v>
+        <v>4.5309696995446398</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="I51">
-        <v>51</v>
+        <v>2349</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -4387,159 +4315,159 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>1.9079201854765401E-2</v>
+        <v>7.3456011246889802E-2</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>3.2596434337947899</v>
       </c>
       <c r="G52">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>0.59843204729259003</v>
+        <v>0.38118377514183499</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2.6807606975001601</v>
       </c>
       <c r="G53">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="H53">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="I53">
-        <v>548</v>
+        <v>133</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C54">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D54">
-        <v>8.92852703109384E-2</v>
+        <v>0.28394296625629101</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2.9654901702103298</v>
       </c>
       <c r="G54">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H54">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>0.87516135210171297</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2.7334415135113299</v>
+      </c>
+      <c r="G55">
         <v>50</v>
       </c>
-      <c r="B55">
-        <v>41</v>
-      </c>
-      <c r="C55">
-        <v>44</v>
-      </c>
-      <c r="D55">
-        <v>0.44841595645993898</v>
-      </c>
-      <c r="E55">
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>131</v>
+      </c>
+      <c r="J55">
         <v>3</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>290</v>
-      </c>
-      <c r="H55">
-        <v>288</v>
-      </c>
-      <c r="I55">
-        <v>97</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B56">
+        <v>59</v>
+      </c>
+      <c r="C56">
         <v>47</v>
       </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
       <c r="D56">
-        <v>0.62666613468900301</v>
+        <v>0.72769091092050098</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2.4303072615329899</v>
       </c>
       <c r="G56">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="H56">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I56">
-        <v>1652</v>
+        <v>494</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -4547,415 +4475,415 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C57">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>0.43453633179888101</v>
+        <v>0.74084622180089399</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>3.9052629939792598</v>
       </c>
       <c r="G57">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.67406437266618002</v>
+        <v>0.33837613789364701</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>3.88843840940917</v>
       </c>
       <c r="G58">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="H58">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="I58">
-        <v>278</v>
+        <v>120</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C59">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D59">
-        <v>0.63638119632378198</v>
+        <v>9.4090568833053098E-2</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>3.32911324275989</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H59">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>0.287570773623884</v>
+        <v>0.100063745863736</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2.7441474309180101</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H60">
-        <v>11</v>
+        <v>593</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>0.75169676635414395</v>
+        <v>0.75605030031874798</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61">
+        <v>2.94432143241165</v>
+      </c>
+      <c r="G61">
+        <v>331</v>
+      </c>
+      <c r="H61">
+        <v>331</v>
+      </c>
+      <c r="I61">
+        <v>673</v>
+      </c>
+      <c r="J61">
         <v>3</v>
-      </c>
-      <c r="G61">
-        <v>40</v>
-      </c>
-      <c r="H61">
-        <v>40</v>
-      </c>
-      <c r="I61">
-        <v>81</v>
-      </c>
-      <c r="J61">
-        <v>2.88</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>0.59453607862815305</v>
+        <v>6.9601329509168905E-2</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>2.36207439434216</v>
       </c>
       <c r="G62">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H62">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I62">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D63">
-        <v>0.44030744675546901</v>
+        <v>8.3080899436026798E-2</v>
       </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>3.3512797318548802</v>
+      </c>
+      <c r="G63">
+        <v>49</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
         <v>1</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>235</v>
-      </c>
-      <c r="H63">
-        <v>229</v>
-      </c>
-      <c r="I63">
-        <v>104</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D64">
-        <v>0.73583274940028798</v>
+        <v>0.182684790808707</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2.88184426992329</v>
       </c>
       <c r="G64">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="H64">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="I64">
-        <v>609</v>
+        <v>47</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D65">
-        <v>0.98023685766384006</v>
+        <v>0.53525503631681204</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F65">
+        <v>2.5846499365506901</v>
+      </c>
+      <c r="G65">
+        <v>219</v>
+      </c>
+      <c r="H65">
+        <v>219</v>
+      </c>
+      <c r="I65">
+        <v>1538</v>
+      </c>
+      <c r="J65">
         <v>3</v>
-      </c>
-      <c r="G65">
-        <v>384</v>
-      </c>
-      <c r="H65">
-        <v>384</v>
-      </c>
-      <c r="I65">
-        <v>5246</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>0.95545248081907597</v>
+        <v>8.1946053542196803E-3</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>3.3133411694922099</v>
       </c>
       <c r="G66">
-        <v>385</v>
+        <v>226</v>
       </c>
       <c r="H66">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C67">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D67">
-        <v>0.84255826473236095</v>
+        <v>0.30914994608610902</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>3.3292412974246899</v>
       </c>
       <c r="G67">
-        <v>568</v>
+        <v>293</v>
       </c>
       <c r="H67">
-        <v>568</v>
+        <v>293</v>
       </c>
       <c r="I67">
-        <v>2339</v>
+        <v>263</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D68">
-        <v>0.14982859790325201</v>
+        <v>0.49405973125249097</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>0.96484493593050302</v>
       </c>
       <c r="G68">
-        <v>21</v>
+        <v>469</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="I68">
-        <v>29</v>
+        <v>353</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C69">
+        <v>90</v>
+      </c>
+      <c r="D69">
+        <v>0.53677230142056898</v>
+      </c>
+      <c r="E69">
         <v>3</v>
       </c>
-      <c r="D69">
-        <v>0.68430216424167201</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
       <c r="F69">
-        <v>3</v>
+        <v>2.3696863662496699</v>
       </c>
       <c r="G69">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="H69">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -4963,223 +4891,223 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D70">
-        <v>0.95269371755421195</v>
+        <v>0.74199187802150801</v>
       </c>
       <c r="E70">
         <v>7</v>
       </c>
       <c r="F70">
+        <v>3.3539016196826199</v>
+      </c>
+      <c r="G70">
+        <v>22</v>
+      </c>
+      <c r="H70">
+        <v>22</v>
+      </c>
+      <c r="I70">
+        <v>140</v>
+      </c>
+      <c r="J70">
         <v>3</v>
-      </c>
-      <c r="G70">
-        <v>60</v>
-      </c>
-      <c r="H70">
-        <v>60</v>
-      </c>
-      <c r="I70">
-        <v>790</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D71">
-        <v>0.73958934936672405</v>
+        <v>0.37410277640446998</v>
       </c>
       <c r="E71">
         <v>7</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>2.7242108942077299</v>
       </c>
       <c r="G71">
-        <v>115</v>
+        <v>421</v>
       </c>
       <c r="H71">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="I71">
-        <v>145</v>
+        <v>670</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D72">
-        <v>0.465760495979339</v>
+        <v>0.51669403444975603</v>
       </c>
       <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1.3771669450948101</v>
+      </c>
+      <c r="G72">
+        <v>22</v>
+      </c>
+      <c r="H72">
+        <v>22</v>
+      </c>
+      <c r="I72">
+        <v>78</v>
+      </c>
+      <c r="J72">
         <v>3</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72">
-        <v>13</v>
-      </c>
-      <c r="H72">
-        <v>13</v>
-      </c>
-      <c r="I72">
-        <v>25</v>
-      </c>
-      <c r="J72">
-        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C73">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D73">
-        <v>0.72442702623084199</v>
+        <v>0.49071760242804902</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1.4697963128560301</v>
       </c>
       <c r="G73">
-        <v>431</v>
+        <v>55</v>
       </c>
       <c r="H73">
-        <v>431</v>
+        <v>55</v>
       </c>
       <c r="I73">
-        <v>1493</v>
+        <v>31</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B74">
+        <v>31</v>
+      </c>
+      <c r="C74">
+        <v>34</v>
+      </c>
+      <c r="D74">
+        <v>0.46769442968070501</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>3.0439131650751698</v>
+      </c>
+      <c r="G74">
         <v>80</v>
       </c>
-      <c r="C74">
-        <v>26</v>
-      </c>
-      <c r="D74">
-        <v>0.83267442183569096</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="G74">
-        <v>357</v>
-      </c>
       <c r="H74">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="I74">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>0.87879400094971105</v>
+        <v>0.426568580325693</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>4.3795017930089202</v>
       </c>
       <c r="G75">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="H75">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="I75">
-        <v>1441</v>
+        <v>392</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C76">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>0.32991296099498901</v>
+        <v>0.115006126929075</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>2.4408839477037101</v>
       </c>
       <c r="G76">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="H76">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="I76">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5187,63 +5115,63 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C77">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D77">
-        <v>0.21082337154075501</v>
+        <v>0.98375038988888297</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2.24678095583258</v>
       </c>
       <c r="G77">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="I77">
-        <v>229</v>
+        <v>785</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>0.65077799838036299</v>
+        <v>0.89929331373423305</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2.9478844393159598</v>
       </c>
       <c r="G78">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="H78">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="I78">
-        <v>1849</v>
+        <v>143</v>
       </c>
       <c r="J78">
         <v>3</v>
@@ -5251,63 +5179,63 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>90</v>
+      </c>
+      <c r="B79">
         <v>80</v>
       </c>
-      <c r="B79">
-        <v>52</v>
-      </c>
       <c r="C79">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>0.14576500141993201</v>
+        <v>0.51330283470451799</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79">
+        <v>1.5334822547907201</v>
+      </c>
+      <c r="G79">
+        <v>164</v>
+      </c>
+      <c r="H79">
+        <v>164</v>
+      </c>
+      <c r="I79">
+        <v>115</v>
+      </c>
+      <c r="J79">
         <v>3</v>
-      </c>
-      <c r="G79">
-        <v>13</v>
-      </c>
-      <c r="H79">
-        <v>13</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B80">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C80">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D80">
-        <v>0.57249190751463197</v>
+        <v>0.80220590345561504</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2.32581815500737</v>
       </c>
       <c r="G80">
-        <v>359</v>
+        <v>52</v>
       </c>
       <c r="H80">
-        <v>359</v>
+        <v>52</v>
       </c>
       <c r="I80">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -5315,255 +5243,255 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B81">
+        <v>60</v>
+      </c>
+      <c r="C81">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>0.50222296360880103</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3.8959304372368599</v>
+      </c>
+      <c r="G81">
         <v>19</v>
       </c>
-      <c r="C81">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>0.912205634638667</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
+      <c r="H81">
+        <v>19</v>
+      </c>
+      <c r="I81">
+        <v>159</v>
+      </c>
+      <c r="J81">
         <v>3</v>
-      </c>
-      <c r="G81">
-        <v>23</v>
-      </c>
-      <c r="H81">
-        <v>23</v>
-      </c>
-      <c r="I81">
-        <v>171</v>
-      </c>
-      <c r="J81">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C82">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>0.73835546337068103</v>
+        <v>0.33130517648532998</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>4.8938411475000301</v>
       </c>
       <c r="G82">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>0.33449261030182198</v>
+        <v>0.21768304705619801</v>
       </c>
       <c r="E83">
         <v>7</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>2.59447152745429</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B84">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C84">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D84">
-        <v>0.131473744288087</v>
+        <v>0.24979136046022199</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>3.8733788377756402</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B85">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>0.70347924623638403</v>
+        <v>0.28448819881305099</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2.80862724377636</v>
       </c>
       <c r="G85">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="H85">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="I85">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>0.48720758687704802</v>
+        <v>0.99011585535481605</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2.4726364729044099</v>
       </c>
       <c r="G86">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>0.140284033492208</v>
+        <v>0.35709339752793301</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2.90177055846494</v>
       </c>
       <c r="G87">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="H87">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B88">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D88">
-        <v>0.85223997151479103</v>
+        <v>0.86132577899843499</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2.8801654918489699</v>
       </c>
       <c r="G88">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="H88">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="I88">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -5571,423 +5499,39 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B89">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C89">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>0.87857079226523604</v>
+        <v>0.73296366166323401</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2.1525523914400102</v>
       </c>
       <c r="G89">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="H89">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="I89">
-        <v>284</v>
+        <v>538</v>
       </c>
       <c r="J89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>70</v>
-      </c>
-      <c r="C90">
-        <v>50</v>
-      </c>
-      <c r="D90">
-        <v>0.99491061223670796</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>299</v>
-      </c>
-      <c r="H90">
-        <v>299</v>
-      </c>
-      <c r="I90">
-        <v>1210</v>
-      </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>74</v>
-      </c>
-      <c r="C91">
-        <v>67</v>
-      </c>
-      <c r="D91">
-        <v>0.19590768311172699</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>160</v>
-      </c>
-      <c r="H91">
-        <v>152</v>
-      </c>
-      <c r="I91">
-        <v>64</v>
-      </c>
-      <c r="J91">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>75</v>
-      </c>
-      <c r="C92">
-        <v>40</v>
-      </c>
-      <c r="D92">
-        <v>0.184874220751226</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-      <c r="G92">
-        <v>61</v>
-      </c>
-      <c r="H92">
-        <v>59</v>
-      </c>
-      <c r="I92">
-        <v>23</v>
-      </c>
-      <c r="J92">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>90</v>
-      </c>
-      <c r="B93">
-        <v>86</v>
-      </c>
-      <c r="C93">
-        <v>72</v>
-      </c>
-      <c r="D93">
-        <v>0.67120899213478002</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>18</v>
-      </c>
-      <c r="H93">
-        <v>18</v>
-      </c>
-      <c r="I93">
-        <v>14</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>95</v>
-      </c>
-      <c r="B94">
-        <v>26</v>
-      </c>
-      <c r="C94">
-        <v>16</v>
-      </c>
-      <c r="D94">
-        <v>0.83859813259914495</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>323</v>
-      </c>
-      <c r="H94">
-        <v>323</v>
-      </c>
-      <c r="I94">
-        <v>1180</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>69</v>
-      </c>
-      <c r="C95">
-        <v>45</v>
-      </c>
-      <c r="D95">
-        <v>0.70853844471275795</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>127</v>
-      </c>
-      <c r="H95">
-        <v>91</v>
-      </c>
-      <c r="I95">
-        <v>125</v>
-      </c>
-      <c r="J95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>100</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>86</v>
-      </c>
-      <c r="D96">
-        <v>0.63133976422250304</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <v>73</v>
-      </c>
-      <c r="H96">
-        <v>73</v>
-      </c>
-      <c r="I96">
-        <v>102</v>
-      </c>
-      <c r="J96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>100</v>
-      </c>
-      <c r="B97">
-        <v>8</v>
-      </c>
-      <c r="C97">
-        <v>64</v>
-      </c>
-      <c r="D97">
-        <v>0.17963390331715301</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-      <c r="G97">
-        <v>187</v>
-      </c>
-      <c r="H97">
-        <v>186</v>
-      </c>
-      <c r="I97">
-        <v>92</v>
-      </c>
-      <c r="J97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>100</v>
-      </c>
-      <c r="B98">
-        <v>35</v>
-      </c>
-      <c r="C98">
-        <v>51</v>
-      </c>
-      <c r="D98">
-        <v>0.52247202256694403</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <v>64</v>
-      </c>
-      <c r="H98">
-        <v>64</v>
-      </c>
-      <c r="I98">
-        <v>58</v>
-      </c>
-      <c r="J98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>100</v>
-      </c>
-      <c r="B99">
-        <v>49</v>
-      </c>
-      <c r="C99">
-        <v>58</v>
-      </c>
-      <c r="D99">
-        <v>0.89049910567700896</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>279</v>
-      </c>
-      <c r="H99">
-        <v>279</v>
-      </c>
-      <c r="I99">
-        <v>368</v>
-      </c>
-      <c r="J99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <v>29</v>
-      </c>
-      <c r="D100">
-        <v>0.91322363400831796</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>463</v>
-      </c>
-      <c r="H100">
-        <v>463</v>
-      </c>
-      <c r="I100">
-        <v>4312</v>
-      </c>
-      <c r="J100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>83</v>
-      </c>
-      <c r="D101">
-        <v>0.76353455521166302</v>
-      </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>26</v>
-      </c>
-      <c r="H101">
-        <v>26</v>
-      </c>
-      <c r="I101">
-        <v>17</v>
-      </c>
-      <c r="J101">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="N2:N9">
-    <sortCondition ref="N2"/>
+  <sortState ref="N29:N40">
+    <sortCondition ref="N29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
